--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637776.6382914532</v>
+        <v>633610.105289825</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932413.92211567</v>
+        <v>33932413.92211565</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747055</v>
+        <v>6528279.443747058</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4584349.300449642</v>
+        <v>4584349.30044964</v>
       </c>
     </row>
     <row r="11">
@@ -1214,10 +1214,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="F10" t="n">
-        <v>17.8422975499833</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>41.31500304752735</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>109.1832463135817</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.950850558606</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>30.54231102287937</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -1584,13 +1584,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>73.46093032721086</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>244.9043102021001</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>228.028356634572</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1770,16 +1770,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>130.7605532869697</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.8516906003054</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,10 +1855,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>128.9395398500426</v>
       </c>
       <c r="G17" t="n">
-        <v>242.2193329454667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>55.96684102370093</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>343.6998897666918</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>139.4214382638844</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>53.19117033386333</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>277.5381064773692</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>27.20924333930842</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>234.9851346407198</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H24" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T24" t="n">
         <v>124.6798257545734</v>
@@ -2481,19 +2481,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>167.3594597981885</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4356049655858</v>
+        <v>70.03764089032956</v>
       </c>
       <c r="T25" t="n">
         <v>239.6907226285777</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>191.1999023136792</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.3474170061614</v>
@@ -2614,16 +2614,16 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.8827787155773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H27" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T27" t="n">
         <v>124.6798257545734</v>
@@ -2724,10 +2724,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>145.5758518932802</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.6907226285777</v>
       </c>
       <c r="U28" t="n">
-        <v>224.8248710573369</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>325.2335095007182</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>23.48898351944539</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H30" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T30" t="n">
         <v>124.6798257545734</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659114</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.6907226285777</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.34573740886752</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>219.5103446679275</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>385.1995418378145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H33" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T33" t="n">
         <v>124.6798257545734</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100.1721176820653</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
         <v>239.6907226285777</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>43.79669403790331</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>213.9817575654878</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4743901009363</v>
+        <v>32.23402674217819</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H36" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T36" t="n">
         <v>124.6798257545734</v>
@@ -3444,7 +3444,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.8496388652449</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U37" t="n">
-        <v>130.6025243739021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>352.2453937924787</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>269.0768827183497</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415825</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H39" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T39" t="n">
         <v>124.6798257545734</v>
@@ -3669,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>40.45894548467952</v>
+        <v>3.140246927694174</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.5854082091491</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>17.91334623462124</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H42" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T42" t="n">
         <v>124.6798257545734</v>
@@ -3915,10 +3915,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>46.64011572343524</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>71.70017841314269</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>79.87985321998485</v>
+        <v>135.8573750841513</v>
       </c>
       <c r="U44" t="n">
         <v>256.4743901009363</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H45" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T45" t="n">
         <v>124.6798257545734</v>
@@ -4146,10 +4146,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.14024692769594</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6010546203353</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>129.9740599963373</v>
       </c>
     </row>
   </sheetData>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.35358036033816</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
-        <v>44.35358036033816</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>79.6038466735672</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>120.5056996906193</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>137.0999445227422</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.08590667097184</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="C10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="D10" t="n">
         <v>104.7923756428305</v>
       </c>
       <c r="E10" t="n">
-        <v>104.7923756428305</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
         <v>45.03752655443588</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>48.34104778508073</v>
+        <v>51.00047617709629</v>
       </c>
       <c r="L10" t="n">
-        <v>89.24290080213279</v>
+        <v>91.90232919414836</v>
       </c>
       <c r="M10" t="n">
-        <v>98.40870607167594</v>
+        <v>101.0681344636915</v>
       </c>
       <c r="N10" t="n">
-        <v>107.3565689784914</v>
+        <v>110.015997370507</v>
       </c>
       <c r="O10" t="n">
-        <v>119.4618979460225</v>
+        <v>118.2807970185298</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>125.3527609056725</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4998,16 +4998,16 @@
         <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586.115323992828</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.115323992828</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.205539167272</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
         <v>716.4307943255671</v>
@@ -5038,16 +5038,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1990.970778581794</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1586.115323992828</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1586.115323992828</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y11" t="n">
-        <v>1586.115323992828</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
         <v>242.6458987333908</v>
@@ -5199,19 +5199,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5232,19 +5232,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221573</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294.5846426621872</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C14" t="n">
-        <v>294.5846426621872</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D14" t="n">
-        <v>294.5846426621872</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>2089.529534294279</v>
       </c>
       <c r="V14" t="n">
-        <v>1526.86868437219</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="W14" t="n">
-        <v>1122.013229783223</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="X14" t="n">
-        <v>702.8707663625338</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.5846426621872</v>
+        <v>1318.626460527759</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.5014354710338</v>
+        <v>717.0469809559636</v>
       </c>
       <c r="C16" t="n">
-        <v>670.9397239542587</v>
+        <v>544.4852694391885</v>
       </c>
       <c r="D16" t="n">
-        <v>505.0617311557814</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E16" t="n">
-        <v>505.0617311557814</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F16" t="n">
-        <v>328.3546771175377</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G16" t="n">
         <v>242.6458987333908</v>
@@ -5433,28 +5433,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N16" t="n">
-        <v>1364.434443083199</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.320054190021</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1589.424503681216</v>
+        <v>1485.275513477279</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.424503681216</v>
+        <v>1047.133040660703</v>
       </c>
       <c r="D17" t="n">
-        <v>1153.514718855661</v>
+        <v>611.223255835147</v>
       </c>
       <c r="E17" t="n">
-        <v>719.7399740139558</v>
+        <v>177.4485109934422</v>
       </c>
       <c r="F17" t="n">
-        <v>291.8725444231636</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895473</v>
@@ -5512,25 +5512,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X17" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y17" t="n">
-        <v>1589.424503681216</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="18">
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5652,16 +5652,16 @@
         <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5496021349386</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895473</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>1690.512214359095</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1525.741883262483</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="C20" t="n">
-        <v>1525.741883262483</v>
+        <v>1057.7208168363</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.570277437541</v>
+        <v>621.8110320107448</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>188.03628716904</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>188.03628716904</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y20" t="n">
-        <v>1952.04145374739</v>
+        <v>1495.863289652877</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>756.6558446758912</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C22" t="n">
-        <v>584.0941331591162</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D22" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>100.935006431645</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>100.935006431645</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>358.0754347909399</v>
+        <v>358.0754347909393</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1693.312293161066</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1421.285888747358</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1175.89413408077</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.4744633948783</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1784.660814205626</v>
+        <v>1374.002425570169</v>
       </c>
       <c r="C23" t="n">
-        <v>1346.51834138905</v>
+        <v>1374.002425570169</v>
       </c>
       <c r="D23" t="n">
-        <v>910.6085565634939</v>
+        <v>938.0926407446136</v>
       </c>
       <c r="E23" t="n">
-        <v>476.8338117217892</v>
+        <v>504.3178959029088</v>
       </c>
       <c r="F23" t="n">
-        <v>48.96638213099693</v>
+        <v>76.45046631211653</v>
       </c>
       <c r="G23" t="n">
-        <v>48.96638213099693</v>
+        <v>76.45046631211653</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141193</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398452</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M23" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N23" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549847</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549847</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="U23" t="n">
-        <v>2448.319106549847</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="V23" t="n">
-        <v>2210.960384690534</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="W23" t="n">
-        <v>2210.960384690534</v>
+        <v>1793.144888990859</v>
       </c>
       <c r="X23" t="n">
-        <v>2210.960384690534</v>
+        <v>1374.002425570169</v>
       </c>
       <c r="Y23" t="n">
-        <v>2210.960384690534</v>
+        <v>1374.002425570169</v>
       </c>
     </row>
     <row r="24">
@@ -6047,40 +6047,40 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D24" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G24" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I24" t="n">
-        <v>48.96638213099693</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J24" t="n">
-        <v>146.3593881372163</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K24" t="n">
-        <v>312.8195479316072</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L24" t="n">
-        <v>536.6457752347912</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M24" t="n">
-        <v>797.8404252965008</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N24" t="n">
-        <v>1065.948120536406</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
         <v>1284.712786677942</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.3360567891443</v>
+        <v>860.8849841167075</v>
       </c>
       <c r="C25" t="n">
-        <v>387.7743452723693</v>
+        <v>688.3232725999325</v>
       </c>
       <c r="D25" t="n">
-        <v>387.7743452723693</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="E25" t="n">
-        <v>218.0163415231065</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F25" t="n">
-        <v>48.96638213099693</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G25" t="n">
-        <v>48.96638213099693</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J25" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K25" t="n">
-        <v>413.780372607163</v>
+        <v>413.780372607162</v>
       </c>
       <c r="L25" t="n">
-        <v>542.2681845220134</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M25" t="n">
-        <v>1137.224434046559</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N25" t="n">
-        <v>1711.734389091367</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O25" t="n">
-        <v>2253.558982554161</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P25" t="n">
-        <v>2358.083982536744</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.44475809976</v>
+        <v>2377.574014741432</v>
       </c>
       <c r="T25" t="n">
-        <v>2062.332917060793</v>
+        <v>2135.462173702464</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.948013403889</v>
+        <v>1857.07727004556</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.992505274319</v>
+        <v>1570.121761915991</v>
       </c>
       <c r="W25" t="n">
-        <v>1224.966100860611</v>
+        <v>1298.095357502282</v>
       </c>
       <c r="X25" t="n">
-        <v>979.5743461940233</v>
+        <v>1052.703602835695</v>
       </c>
       <c r="Y25" t="n">
-        <v>752.1546755081315</v>
+        <v>1052.703602835695</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>448.3984362953971</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C26" t="n">
-        <v>448.3984362953971</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D26" t="n">
-        <v>448.3984362953971</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E26" t="n">
-        <v>448.3984362953971</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F26" t="n">
-        <v>448.3984362953971</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G26" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I26" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786133</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141189</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398448</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M26" t="n">
         <v>1173.781693844502</v>
@@ -6241,37 +6241,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S26" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T26" t="n">
-        <v>2198.000343579826</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="U26" t="n">
-        <v>1938.93530307383</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="V26" t="n">
-        <v>1576.318353007656</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="W26" t="n">
-        <v>1171.46289841869</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="X26" t="n">
-        <v>752.3204349980005</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="Y26" t="n">
-        <v>448.3984362953971</v>
+        <v>1977.792028663888</v>
       </c>
     </row>
     <row r="27">
@@ -6284,37 +6284,37 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D27" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G27" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I27" t="n">
-        <v>48.96638213099693</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J27" t="n">
-        <v>146.3593881372162</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K27" t="n">
-        <v>312.8195479316072</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L27" t="n">
-        <v>510.1442793216692</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M27" t="n">
-        <v>771.338929383379</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N27" t="n">
         <v>1039.446624623284</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>898.5806392247719</v>
+        <v>704.2104052392294</v>
       </c>
       <c r="C28" t="n">
-        <v>726.0189277079968</v>
+        <v>531.6486937224544</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1409349095195</v>
+        <v>365.7707009239771</v>
       </c>
       <c r="E28" t="n">
-        <v>390.3829311602567</v>
+        <v>196.0126971747143</v>
       </c>
       <c r="F28" t="n">
-        <v>213.6758771220129</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G28" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H28" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J28" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K28" t="n">
-        <v>571.8138742903014</v>
+        <v>413.780372607162</v>
       </c>
       <c r="L28" t="n">
-        <v>793.7446588834619</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M28" t="n">
-        <v>1388.700908408007</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N28" t="n">
-        <v>1963.210863452816</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O28" t="n">
-        <v>2085.366207689828</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060792</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U28" t="n">
-        <v>1835.237087709947</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V28" t="n">
-        <v>1835.237087709947</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W28" t="n">
-        <v>1563.210683296238</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X28" t="n">
-        <v>1317.818928629651</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y28" t="n">
-        <v>1090.399257943759</v>
+        <v>896.0290239582166</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1591.448832618478</v>
+        <v>1638.559307193266</v>
       </c>
       <c r="C29" t="n">
-        <v>1153.306359801901</v>
+        <v>1638.559307193266</v>
       </c>
       <c r="D29" t="n">
-        <v>717.3965749763458</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="E29" t="n">
-        <v>717.3965749763458</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F29" t="n">
-        <v>717.3965749763458</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G29" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H29" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I29" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J29" t="n">
-        <v>286.358089178614</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141197</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398455</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M29" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P29" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549847</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T29" t="n">
-        <v>2236.857069169886</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U29" t="n">
-        <v>1977.792028663889</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V29" t="n">
-        <v>1615.175078597716</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="W29" t="n">
-        <v>1591.448832618478</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="X29" t="n">
-        <v>1591.448832618478</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="Y29" t="n">
-        <v>1591.448832618478</v>
+        <v>1638.559307193266</v>
       </c>
     </row>
     <row r="30">
@@ -6521,46 +6521,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C30" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D30" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E30" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F30" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I30" t="n">
-        <v>84.45847150237346</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J30" t="n">
-        <v>181.8514775085928</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K30" t="n">
-        <v>348.3116373029837</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L30" t="n">
-        <v>572.1378646061678</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M30" t="n">
-        <v>833.3325146678775</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N30" t="n">
-        <v>1101.440209907783</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O30" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P30" t="n">
-        <v>1543.554090058108</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q30" t="n">
         <v>1613.147991278647</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.8711442337559</v>
+        <v>704.2104052392294</v>
       </c>
       <c r="C31" t="n">
-        <v>561.3094327169808</v>
+        <v>531.6486937224544</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4314399185035</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E31" t="n">
         <v>225.6734361692407</v>
       </c>
       <c r="F31" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G31" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H31" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I31" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J31" t="n">
-        <v>110.0676242284527</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K31" t="n">
-        <v>210.4757345544761</v>
+        <v>297.0554197191659</v>
       </c>
       <c r="L31" t="n">
-        <v>654.2451577325845</v>
+        <v>425.5432316340161</v>
       </c>
       <c r="M31" t="n">
-        <v>789.7175400762169</v>
+        <v>1020.499481158561</v>
       </c>
       <c r="N31" t="n">
-        <v>1364.227495121025</v>
+        <v>1595.00943620337</v>
       </c>
       <c r="O31" t="n">
-        <v>1906.052088583819</v>
+        <v>2136.834029666164</v>
       </c>
       <c r="P31" t="n">
-        <v>2358.083982536744</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.44475809976</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T31" t="n">
-        <v>2062.332917060793</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.948013403889</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.992505274319</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W31" t="n">
-        <v>1224.966100860611</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X31" t="n">
-        <v>979.5743461940233</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y31" t="n">
-        <v>925.689762952743</v>
+        <v>896.0290239582166</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1615.516480069998</v>
+        <v>1405.702044096009</v>
       </c>
       <c r="C32" t="n">
-        <v>1615.516480069998</v>
+        <v>967.5595712794325</v>
       </c>
       <c r="D32" t="n">
-        <v>1179.606695244443</v>
+        <v>745.831950402738</v>
       </c>
       <c r="E32" t="n">
-        <v>745.8319504027379</v>
+        <v>745.831950402738</v>
       </c>
       <c r="F32" t="n">
-        <v>317.9645208119457</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="G32" t="n">
-        <v>317.9645208119457</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099693</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141193</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L32" t="n">
-        <v>835.4773641398452</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M32" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N32" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O32" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P32" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S32" t="n">
-        <v>2409.462380959788</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T32" t="n">
-        <v>2409.462380959788</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="U32" t="n">
-        <v>2409.462380959788</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="V32" t="n">
-        <v>2409.462380959788</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="W32" t="n">
-        <v>2004.606926370821</v>
+        <v>1832.001614580917</v>
       </c>
       <c r="X32" t="n">
-        <v>2004.606926370821</v>
+        <v>1832.001614580917</v>
       </c>
       <c r="Y32" t="n">
-        <v>1615.516480069998</v>
+        <v>1832.001614580917</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1315.09612991731</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C33" t="n">
-        <v>1208.639668753952</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D33" t="n">
-        <v>1113.549379900506</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E33" t="n">
-        <v>1019.428965227459</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F33" t="n">
-        <v>936.0451268436211</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G33" t="n">
-        <v>851.7118206437449</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H33" t="n">
-        <v>820.1341831166927</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I33" t="n">
-        <v>855.6262724880693</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J33" t="n">
-        <v>953.0192784942886</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K33" t="n">
-        <v>1119.47943828868</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L33" t="n">
-        <v>1343.305665591864</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M33" t="n">
-        <v>1604.500315653573</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N33" t="n">
-        <v>1872.608010893478</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.874172948136</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P33" t="n">
-        <v>2314.721891043804</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
-        <v>2384.315792264343</v>
+        <v>1675.141576563144</v>
       </c>
       <c r="R33" t="n">
-        <v>2448.319106549847</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S33" t="n">
-        <v>2404.400086832596</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T33" t="n">
-        <v>2278.460868898684</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U33" t="n">
-        <v>2102.193518183779</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V33" t="n">
-        <v>1903.076000245779</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W33" t="n">
-        <v>1717.753245978973</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X33" t="n">
-        <v>1562.885810217853</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y33" t="n">
-        <v>1436.400030997073</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>794.8450667036064</v>
+        <v>743.5166425882634</v>
       </c>
       <c r="C34" t="n">
-        <v>622.2833551868314</v>
+        <v>743.5166425882634</v>
       </c>
       <c r="D34" t="n">
-        <v>622.2833551868314</v>
+        <v>577.6386497897861</v>
       </c>
       <c r="E34" t="n">
-        <v>452.5253514375687</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="F34" t="n">
-        <v>275.8182973993249</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G34" t="n">
-        <v>111.1088024083089</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H34" t="n">
         <v>111.1088024083089</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099693</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J34" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K34" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L34" t="n">
-        <v>1118.511567973113</v>
+        <v>654.2451577325832</v>
       </c>
       <c r="M34" t="n">
-        <v>1483.45281759531</v>
+        <v>789.7175400762154</v>
       </c>
       <c r="N34" t="n">
-        <v>1615.703969482474</v>
+        <v>1364.227495121024</v>
       </c>
       <c r="O34" t="n">
-        <v>1737.859313719486</v>
+        <v>1906.052088583817</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.891207672412</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S34" t="n">
-        <v>2347.135149295235</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T34" t="n">
-        <v>2105.023308256268</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U34" t="n">
-        <v>1826.638404599364</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V34" t="n">
-        <v>1539.682896469794</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.656492056086</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X34" t="n">
-        <v>1022.264737389498</v>
+        <v>979.5743461940215</v>
       </c>
       <c r="Y34" t="n">
-        <v>794.8450667036064</v>
+        <v>935.3352613072504</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1356.793384614834</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="C35" t="n">
-        <v>918.6509117982573</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="D35" t="n">
-        <v>482.7411269727017</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="E35" t="n">
-        <v>48.96638213099693</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="F35" t="n">
-        <v>48.96638213099693</v>
+        <v>717.396574976346</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96638213099693</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I35" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J35" t="n">
-        <v>286.358089178614</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141197</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4773641398456</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O35" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P35" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q35" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R35" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S35" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T35" t="n">
-        <v>2236.857069169886</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U35" t="n">
-        <v>1977.792028663889</v>
+        <v>2415.759483577948</v>
       </c>
       <c r="V35" t="n">
-        <v>1977.792028663889</v>
+        <v>2415.759483577948</v>
       </c>
       <c r="W35" t="n">
-        <v>1572.936574074923</v>
+        <v>2415.759483577948</v>
       </c>
       <c r="X35" t="n">
-        <v>1572.936574074923</v>
+        <v>2415.759483577948</v>
       </c>
       <c r="Y35" t="n">
-        <v>1572.936574074923</v>
+        <v>2007.473359877602</v>
       </c>
     </row>
     <row r="36">
@@ -6995,46 +6995,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C36" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D36" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E36" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F36" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I36" t="n">
-        <v>48.96638213099693</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J36" t="n">
-        <v>146.3593881372163</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K36" t="n">
-        <v>312.8195479316072</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L36" t="n">
-        <v>536.6457752347912</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M36" t="n">
-        <v>797.8404252965008</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N36" t="n">
-        <v>1065.948120536406</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O36" t="n">
-        <v>1311.214282591064</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P36" t="n">
-        <v>1508.062000686731</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q36" t="n">
         <v>1613.147991278647</v>
@@ -7083,7 +7083,7 @@
         <v>584.5877000787672</v>
       </c>
       <c r="F37" t="n">
-        <v>407.8806460405233</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G37" t="n">
         <v>243.1711510495074</v>
@@ -7092,49 +7092,49 @@
         <v>111.1088024083089</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J37" t="n">
-        <v>110.0676242284527</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K37" t="n">
-        <v>210.4757345544761</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L37" t="n">
-        <v>542.2681845220134</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M37" t="n">
-        <v>1137.224434046559</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N37" t="n">
-        <v>1711.734389091367</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O37" t="n">
-        <v>2253.558982554161</v>
+        <v>1737.859313719485</v>
       </c>
       <c r="P37" t="n">
-        <v>2358.083982536744</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R37" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S37" t="n">
-        <v>2448.319106549847</v>
+        <v>2313.117451130406</v>
       </c>
       <c r="T37" t="n">
-        <v>2448.319106549847</v>
+        <v>2071.005610091439</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.397364758026</v>
+        <v>2071.005610091439</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.441856628457</v>
+        <v>1784.05010196187</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.415452214749</v>
+        <v>1512.023697548161</v>
       </c>
       <c r="X37" t="n">
         <v>1512.023697548161</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1620.545860408707</v>
+        <v>2053.658952886575</v>
       </c>
       <c r="C38" t="n">
-        <v>1182.40338759213</v>
+        <v>1615.516480069998</v>
       </c>
       <c r="D38" t="n">
-        <v>910.6085565634939</v>
+        <v>1179.606695244443</v>
       </c>
       <c r="E38" t="n">
-        <v>476.8338117217892</v>
+        <v>745.831950402738</v>
       </c>
       <c r="F38" t="n">
-        <v>48.96638213099693</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96638213099693</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099693</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J38" t="n">
-        <v>286.358089178614</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K38" t="n">
-        <v>531.4362430141197</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4773641398456</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N38" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O38" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P38" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q38" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R38" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S38" t="n">
-        <v>2409.462380959788</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="T38" t="n">
-        <v>2409.462380959788</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="U38" t="n">
-        <v>2409.462380959788</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="V38" t="n">
-        <v>2046.845430893614</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="W38" t="n">
-        <v>2046.845430893614</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="X38" t="n">
-        <v>2046.845430893614</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="Y38" t="n">
-        <v>2046.845430893614</v>
+        <v>2409.462380959786</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1315.09612991731</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>1208.639668753952</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D39" t="n">
-        <v>1113.549379900506</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>1019.428965227459</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F39" t="n">
-        <v>936.0451268436211</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>851.7118206437449</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H39" t="n">
-        <v>820.1341831166927</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I39" t="n">
-        <v>855.6262724880693</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J39" t="n">
-        <v>953.0192784942886</v>
+        <v>146.3593881372162</v>
       </c>
       <c r="K39" t="n">
-        <v>1119.47943828868</v>
+        <v>312.8195479316071</v>
       </c>
       <c r="L39" t="n">
-        <v>1343.305665591864</v>
+        <v>536.6457752347909</v>
       </c>
       <c r="M39" t="n">
-        <v>1604.500315653573</v>
+        <v>797.8404252965004</v>
       </c>
       <c r="N39" t="n">
-        <v>1872.608010893478</v>
+        <v>1065.948120536405</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.874172948136</v>
+        <v>1311.214282591063</v>
       </c>
       <c r="P39" t="n">
-        <v>2252.728305759305</v>
+        <v>1508.06200068673</v>
       </c>
       <c r="Q39" t="n">
-        <v>2384.315792264343</v>
+        <v>1639.649487191768</v>
       </c>
       <c r="R39" t="n">
-        <v>2448.319106549847</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S39" t="n">
-        <v>2404.400086832596</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T39" t="n">
-        <v>2278.460868898684</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U39" t="n">
-        <v>2102.193518183779</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V39" t="n">
-        <v>1903.076000245779</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W39" t="n">
-        <v>1717.753245978973</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X39" t="n">
-        <v>1562.885810217853</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y39" t="n">
-        <v>1436.400030997073</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.3360567891443</v>
+        <v>560.3360567891425</v>
       </c>
       <c r="C40" t="n">
-        <v>387.7743452723693</v>
+        <v>387.7743452723674</v>
       </c>
       <c r="D40" t="n">
-        <v>221.8963524738919</v>
+        <v>221.8963524738901</v>
       </c>
       <c r="E40" t="n">
-        <v>221.8963524738919</v>
+        <v>52.13834872462738</v>
       </c>
       <c r="F40" t="n">
-        <v>181.0287307721954</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G40" t="n">
-        <v>181.0287307721954</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H40" t="n">
-        <v>48.96638213099693</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099693</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J40" t="n">
-        <v>110.0676242284527</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K40" t="n">
-        <v>210.4757345544761</v>
+        <v>571.8138742903013</v>
       </c>
       <c r="L40" t="n">
-        <v>542.2681845220134</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M40" t="n">
-        <v>1137.224434046559</v>
+        <v>1253.983950316745</v>
       </c>
       <c r="N40" t="n">
-        <v>1711.734389091367</v>
+        <v>1386.235102203909</v>
       </c>
       <c r="O40" t="n">
-        <v>2253.558982554161</v>
+        <v>1737.859313719485</v>
       </c>
       <c r="P40" t="n">
-        <v>2358.083982536744</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q40" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R40" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.44475809976</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T40" t="n">
-        <v>2062.332917060793</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.948013403889</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.992505274319</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.966100860611</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X40" t="n">
-        <v>979.5743461940233</v>
+        <v>979.5743461940215</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.1546755081315</v>
+        <v>752.1546755081297</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.96638213099693</v>
+        <v>1366.845318505951</v>
       </c>
       <c r="C41" t="n">
-        <v>48.96638213099693</v>
+        <v>928.702845689374</v>
       </c>
       <c r="D41" t="n">
-        <v>48.96638213099693</v>
+        <v>928.702845689374</v>
       </c>
       <c r="E41" t="n">
-        <v>48.96638213099693</v>
+        <v>494.9281008476692</v>
       </c>
       <c r="F41" t="n">
-        <v>48.96638213099693</v>
+        <v>67.06067125687696</v>
       </c>
       <c r="G41" t="n">
-        <v>48.96638213099693</v>
+        <v>67.06067125687696</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882627</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786139</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141196</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4773641398455</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M41" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S41" t="n">
-        <v>2448.319106549847</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T41" t="n">
-        <v>2236.857069169886</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="U41" t="n">
-        <v>1977.792028663889</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="V41" t="n">
-        <v>1615.175078597716</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="W41" t="n">
-        <v>1210.319624008749</v>
+        <v>1793.144888990859</v>
       </c>
       <c r="X41" t="n">
-        <v>791.1771605880598</v>
+        <v>1793.144888990859</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.8910368877132</v>
+        <v>1793.144888990859</v>
       </c>
     </row>
     <row r="42">
@@ -7469,46 +7469,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D42" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E42" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F42" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I42" t="n">
-        <v>84.45847150237346</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578922240943</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K42" t="n">
-        <v>286.3180520184852</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L42" t="n">
-        <v>510.1442793216692</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M42" t="n">
-        <v>771.338929383379</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N42" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O42" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P42" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.147991278647</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1077.75421586944</v>
+        <v>960.7230595020837</v>
       </c>
       <c r="C43" t="n">
-        <v>905.1925043526652</v>
+        <v>788.1613479853087</v>
       </c>
       <c r="D43" t="n">
-        <v>739.3145115541879</v>
+        <v>622.2833551868314</v>
       </c>
       <c r="E43" t="n">
-        <v>569.5565078049251</v>
+        <v>452.5253514375687</v>
       </c>
       <c r="F43" t="n">
-        <v>392.8494537666813</v>
+        <v>275.8182973993249</v>
       </c>
       <c r="G43" t="n">
-        <v>228.1399587756654</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="H43" t="n">
-        <v>96.07761013446688</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K43" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L43" t="n">
-        <v>700.3016862051519</v>
+        <v>338.9635464693263</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.257935729697</v>
+        <v>789.7175400762159</v>
       </c>
       <c r="N43" t="n">
-        <v>1427.509087616861</v>
+        <v>1364.227495121024</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.859313719486</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.891207672412</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.44475809976</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.332917060793</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.948013403889</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.992505274319</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.992505274319</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X43" t="n">
-        <v>1496.992505274319</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="Y43" t="n">
-        <v>1269.572834588427</v>
+        <v>1152.541678221071</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1745.95039555345</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="C44" t="n">
-        <v>1745.95039555345</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="D44" t="n">
-        <v>1310.040610727894</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="E44" t="n">
         <v>876.2658658861894</v>
@@ -7639,61 +7639,61 @@
         <v>448.3984362953971</v>
       </c>
       <c r="G44" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H44" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I44" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J44" t="n">
-        <v>286.358089178614</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K44" t="n">
-        <v>531.4362430141197</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L44" t="n">
-        <v>835.4773641398455</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M44" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N44" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O44" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P44" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q44" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R44" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S44" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T44" t="n">
-        <v>2367.63238612562</v>
+        <v>2311.089434747672</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.567345619623</v>
+        <v>2052.024394241676</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.95039555345</v>
+        <v>1689.407444175503</v>
       </c>
       <c r="W44" t="n">
-        <v>1745.95039555345</v>
+        <v>1284.551989586536</v>
       </c>
       <c r="X44" t="n">
-        <v>1745.95039555345</v>
+        <v>1284.551989586536</v>
       </c>
       <c r="Y44" t="n">
-        <v>1745.95039555345</v>
+        <v>876.2658658861894</v>
       </c>
     </row>
     <row r="45">
@@ -7706,37 +7706,37 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C45" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D45" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E45" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F45" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G45" t="n">
-        <v>80.54401965804904</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H45" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I45" t="n">
-        <v>48.96638213099693</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578922240943</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K45" t="n">
-        <v>286.3180520184852</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L45" t="n">
-        <v>510.1442793216692</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M45" t="n">
-        <v>771.338929383379</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N45" t="n">
         <v>1039.446624623284</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.3360567891443</v>
+        <v>898.5806392247719</v>
       </c>
       <c r="C46" t="n">
-        <v>387.7743452723693</v>
+        <v>726.0189277079968</v>
       </c>
       <c r="D46" t="n">
-        <v>221.8963524738919</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E46" t="n">
-        <v>52.1383487246292</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F46" t="n">
-        <v>52.1383487246292</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G46" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H46" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I46" t="n">
-        <v>48.96638213099693</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J46" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K46" t="n">
-        <v>571.8138742903014</v>
+        <v>413.780372607162</v>
       </c>
       <c r="L46" t="n">
-        <v>1118.511567973113</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M46" t="n">
-        <v>1483.45281759531</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N46" t="n">
-        <v>1615.703969482474</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O46" t="n">
-        <v>1737.859313719486</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.891207672412</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q46" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R46" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.44475809976</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T46" t="n">
-        <v>2062.332917060793</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.948013403889</v>
+        <v>2026.059854442854</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.992505274319</v>
+        <v>1739.104346313285</v>
       </c>
       <c r="W46" t="n">
-        <v>1224.966100860611</v>
+        <v>1467.077941899576</v>
       </c>
       <c r="X46" t="n">
-        <v>979.5743461940233</v>
+        <v>1221.686187232989</v>
       </c>
       <c r="Y46" t="n">
-        <v>752.1546755081315</v>
+        <v>1090.399257943759</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.46456242451583</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>22.99211437686851</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.624666072174222</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>32.53395007869804</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.87932254495783</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172662</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>35.36463642161821</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>118.2717723303424</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>70.05088382580971</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>69.27619576520601</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9798,7 +9798,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>117.9039928161586</v>
+        <v>117.9039928161578</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>117.9039928161578</v>
       </c>
       <c r="L28" t="n">
-        <v>94.38684108920199</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>318.466274003291</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>117.9039928161574</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>318.4662740032898</v>
       </c>
       <c r="M34" t="n">
-        <v>231.7867346248133</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>205.3582202552393</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>319.2409620638934</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>205.3582202552393</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>231.7867346248122</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>318.4662740032902</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>190.0958402682961</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>117.9039928161578</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>231.7867346248133</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>249.8075342519301</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>148.252411904737</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.2937833787279</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>195.8452100423605</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>184.5326871911876</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>28.45162792912919</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.45865958352286</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>78.24207798330136</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>294.6492154448417</v>
       </c>
       <c r="G17" t="n">
-        <v>153.2883314618508</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,7 +23791,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>87.85079721060811</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>256.0862261434331</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>77.82944968061393</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.547846570904596</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>266.3081572941393</v>
+        <v>239.0989139548309</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
-        <v>124.0056459247919</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>7.580523699672852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.39796407525625</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>230.8366724663794</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
         <v>266.3081572941393</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>103.3204837477658</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>29.3641316045811</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>50.77618356299834</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>106.3171774765817</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>377.3179165236316</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>29.3641316045811</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.7997365701653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.0403423093724</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T32" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4743901009363</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.00372062552856</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>42.26348728352052</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>181.3487799411295</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>208.0548172145709</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415825</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>224.2403633587581</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4356049655858</v>
+        <v>8.585966100340954</v>
       </c>
       <c r="T37" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.9985302464332</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>69.79118098757999</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>162.4738042589502</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4810380131818</v>
+        <v>171.7997365701672</v>
       </c>
       <c r="G40" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.45116657090961</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
-        <v>266.3081572941393</v>
+        <v>248.3948110595181</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415825</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>14.88088035110361</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>153.4452955658901</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415825</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T44" t="n">
-        <v>129.4675637861766</v>
+        <v>73.49004192201014</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>159.9221531134098</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453885</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>95.17141398269547</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342068.9258924816</v>
+        <v>342068.9258924815</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>342068.9258924816</v>
+        <v>342068.9258924813</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015967</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015968</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015968</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015968</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015968</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>352122.1649015969</v>
+        <v>352122.1649015967</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015968</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352122.164901597</v>
+        <v>352122.1649015969</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>379453.8588450989</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
+        <v>228081.4783861852</v>
+      </c>
+      <c r="F2" t="n">
         <v>228081.4783861851</v>
-      </c>
-      <c r="F2" t="n">
-        <v>228081.4783861852</v>
       </c>
       <c r="G2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="H2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.478386185</v>
       </c>
       <c r="I2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="J2" t="n">
         <v>234682.5783707575</v>
       </c>
       <c r="K2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="L2" t="n">
-        <v>234682.5783707575</v>
+        <v>234682.5783707574</v>
       </c>
       <c r="M2" t="n">
         <v>234682.5783707575</v>
       </c>
       <c r="N2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="O2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707574</v>
       </c>
       <c r="P2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707575</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935674</v>
+        <v>18943.98047935654</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630158</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831154</v>
+        <v>136754.9043831155</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>294805.647780792</v>
+        <v>294805.6477807921</v>
       </c>
       <c r="E4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="F4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129961</v>
       </c>
       <c r="G4" t="n">
-        <v>20076.67410129962</v>
+        <v>20076.67410129961</v>
       </c>
       <c r="H4" t="n">
-        <v>20076.67410129962</v>
+        <v>20076.67410129961</v>
       </c>
       <c r="I4" t="n">
-        <v>20810.77831823211</v>
+        <v>20810.77831823209</v>
       </c>
       <c r="J4" t="n">
         <v>20810.77831823209</v>
       </c>
       <c r="K4" t="n">
-        <v>20810.7783182321</v>
+        <v>20810.77831823209</v>
       </c>
       <c r="L4" t="n">
-        <v>20810.7783182321</v>
+        <v>20810.77831823209</v>
       </c>
       <c r="M4" t="n">
-        <v>20810.77831823211</v>
+        <v>20810.77831823209</v>
       </c>
       <c r="N4" t="n">
-        <v>20810.77831823211</v>
+        <v>20810.77831823209</v>
       </c>
       <c r="O4" t="n">
-        <v>20810.7783182321</v>
+        <v>20810.77831823209</v>
       </c>
       <c r="P4" t="n">
-        <v>20810.7783182321</v>
+        <v>20810.77831823209</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="J5" t="n">
-        <v>47767.76961397017</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="L5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="M5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="N5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="O5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="P5" t="n">
-        <v>47767.76961397018</v>
+        <v>47767.76961397016</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="C6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="D6" t="n">
         <v>16163.69478478826</v>
       </c>
       <c r="E6" t="n">
-        <v>-350531.786480734</v>
+        <v>-351085.666923956</v>
       </c>
       <c r="F6" t="n">
-        <v>161953.7230752477</v>
+        <v>161399.8426320257</v>
       </c>
       <c r="G6" t="n">
-        <v>161953.7230752477</v>
+        <v>161399.8426320257</v>
       </c>
       <c r="H6" t="n">
-        <v>161953.7230752477</v>
+        <v>161399.8426320257</v>
       </c>
       <c r="I6" t="n">
-        <v>147160.0499591986</v>
+        <v>146628.9319297167</v>
       </c>
       <c r="J6" t="n">
-        <v>166104.0304385553</v>
+        <v>165572.9124090733</v>
       </c>
       <c r="K6" t="n">
-        <v>166104.0304385553</v>
+        <v>165572.9124090732</v>
       </c>
       <c r="L6" t="n">
-        <v>155647.5750022535</v>
+        <v>155116.4569727716</v>
       </c>
       <c r="M6" t="n">
-        <v>29349.12605543985</v>
+        <v>28818.00802595769</v>
       </c>
       <c r="N6" t="n">
-        <v>166104.0304385553</v>
+        <v>165572.9124090732</v>
       </c>
       <c r="O6" t="n">
-        <v>166104.0304385553</v>
+        <v>165572.9124090731</v>
       </c>
       <c r="P6" t="n">
-        <v>166104.0304385553</v>
+        <v>165572.9124090732</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="P3" t="n">
-        <v>484.0972107528676</v>
+        <v>484.0972107528673</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="J4" t="n">
-        <v>612.0797766374616</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="L4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="P4" t="n">
-        <v>612.0797766374617</v>
+        <v>612.0797766374614</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.39528265964645</v>
+        <v>17.39528265964623</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552745</v>
+        <v>21.99788227552733</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.3150030475267</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144072</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27934,10 +27934,10 @@
         <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27949,7 +27949,7 @@
         <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>137.5011852406794</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28016,19 +28016,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>150.2181261617868</v>
       </c>
       <c r="F10" t="n">
-        <v>157.097685947878</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
         <v>44.68216206888225</v>
@@ -28070,7 +28070,7 @@
         <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562338</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H23" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K23" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M23" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R23" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S23" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H24" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9744102439754</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
         <v>132.9166530353911</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959997</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S24" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T24" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K25" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M25" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P25" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R25" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S25" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T25" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M26" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R26" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H27" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365587</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>199.3179104950121</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
         <v>132.9166530353911</v>
       </c>
       <c r="R27" t="n">
-        <v>64.64981240959997</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S27" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T27" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P28" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R28" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S28" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T28" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K29" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M29" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R29" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S29" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H30" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462275</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365587</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.29686991973608</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R30" t="n">
-        <v>64.64981240959997</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S30" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T30" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M31" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P31" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R31" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S31" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T31" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H32" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K32" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M32" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R32" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S32" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H33" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462275</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.29686991973585</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240959997</v>
+        <v>2.030029293945972</v>
       </c>
       <c r="S33" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T33" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K34" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M34" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P34" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R34" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S34" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T34" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H35" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M35" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R35" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S35" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H36" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P36" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.147465244359</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R36" t="n">
-        <v>64.64981240959997</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S36" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T36" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K37" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M37" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P37" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R37" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S37" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T37" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H38" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K38" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M38" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R38" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S38" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H39" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462275</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365587</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P39" t="n">
-        <v>136.2162957688579</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
         <v>132.9166530353911</v>
       </c>
       <c r="R39" t="n">
-        <v>64.64981240959997</v>
+        <v>37.88062461856862</v>
       </c>
       <c r="S39" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T39" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K40" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L40" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M40" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P40" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R40" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S40" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T40" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H41" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K41" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M41" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R41" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S41" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H42" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462275</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>35.75699062800081</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R42" t="n">
-        <v>64.64981240959997</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S42" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T42" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K43" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M43" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P43" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R43" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S43" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T43" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.946119440212532</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H44" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I44" t="n">
-        <v>75.02776971879371</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K44" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M44" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992512</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R44" t="n">
         <v>122.2479252862505</v>
       </c>
       <c r="S44" t="n">
-        <v>44.34719674384311</v>
+        <v>44.34719674384309</v>
       </c>
       <c r="T44" t="n">
-        <v>8.519137849530361</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H45" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J45" t="n">
-        <v>71.60758595262357</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776821</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q45" t="n">
         <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>64.64981240959997</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S45" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T45" t="n">
-        <v>4.197031478130993</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06850432227634923</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8729621833248431</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H46" t="n">
-        <v>7.761427411742702</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I46" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K46" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L46" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M46" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P46" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.098678823683</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R46" t="n">
-        <v>39.2515541702243</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S46" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T46" t="n">
-        <v>3.729929328751602</v>
+        <v>3.7299293287516</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04761611909044604</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35260,22 +35260,22 @@
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752736</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752734</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>15.07753925626071</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752735</v>
+        <v>6.862043349739423</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M10" t="n">
         <v>9.258389161154682</v>
@@ -35345,13 +35345,13 @@
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>12.22760501770811</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.945718411146316</v>
+        <v>40.31035483276453</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,10 +35415,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>247.0585519302308</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35649,22 +35649,22 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35962,7 +35962,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654563</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>198.8376634256981</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36132,13 +36132,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>167.0540751263759</v>
+        <v>254.508302565456</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K23" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M23" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365589</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9744102439754</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P24" t="n">
         <v>198.8360788845127</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.1726538001471</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K25" t="n">
-        <v>219.3263264788085</v>
+        <v>219.3263264788076</v>
       </c>
       <c r="L25" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M25" t="n">
-        <v>600.965908610652</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N25" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O25" t="n">
         <v>547.2975691543368</v>
@@ -36539,7 +36539,7 @@
         <v>73.0986788236828</v>
       </c>
       <c r="R25" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365586</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>199.3179104950121</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
         <v>247.7435980350076</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.1726538001471</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587464</v>
+        <v>219.3263264788076</v>
       </c>
       <c r="L28" t="n">
-        <v>224.172509690061</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
-        <v>600.965908610652</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N28" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P28" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R28" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K29" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M29" t="n">
         <v>341.7215451562188</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462275</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365586</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
         <v>247.7435980350076</v>
@@ -36931,7 +36931,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.29686991973608</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R30" t="n">
         <v>64.64981240959992</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106641</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>448.2519426041499</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N31" t="n">
         <v>580.313085903847</v>
       </c>
       <c r="O31" t="n">
-        <v>547.2975691543368</v>
+        <v>547.297569154337</v>
       </c>
       <c r="P31" t="n">
-        <v>456.5978726797225</v>
+        <v>223.4848008793729</v>
       </c>
       <c r="Q31" t="n">
         <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J32" t="n">
         <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M32" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562186</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R32" t="n">
         <v>122.2479252862504</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365592</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P33" t="n">
-        <v>198.836078884513</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.29686991973585</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240960014</v>
+        <v>2.030029293945972</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>149.1726538001471</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K34" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>552.2198926089004</v>
+        <v>448.2519426041487</v>
       </c>
       <c r="M34" t="n">
-        <v>368.6275248709067</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082464</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P34" t="n">
-        <v>456.5978726797225</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q34" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R34" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562189</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R35" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365589</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.147465244359</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R36" t="n">
         <v>64.64981240959992</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106641</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K37" t="n">
-        <v>101.4223336626499</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L37" t="n">
-        <v>335.1438888560982</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M37" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O37" t="n">
-        <v>547.2975691543368</v>
+        <v>442.6301986669357</v>
       </c>
       <c r="P37" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R37" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562189</v>
+        <v>341.7215451562186</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R38" t="n">
         <v>122.2479252862504</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462276</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365592</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P39" t="n">
-        <v>136.2162957688579</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
-        <v>64.64981240960014</v>
+        <v>37.88062461856862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106641</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K40" t="n">
-        <v>101.4223336626499</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L40" t="n">
-        <v>335.1438888560982</v>
+        <v>552.2198926089005</v>
       </c>
       <c r="M40" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O40" t="n">
-        <v>547.2975691543368</v>
+        <v>355.1759712278545</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R40" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K41" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M41" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O41" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R41" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462275</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>35.75699062800081</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P42" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R42" t="n">
         <v>64.64981240959992</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>149.1726538001471</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M43" t="n">
-        <v>600.9659086106519</v>
+        <v>455.3070642493835</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082464</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O43" t="n">
-        <v>313.4850768713386</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797225</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R43" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.6151482396623</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K44" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M44" t="n">
         <v>341.7215451562188</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J45" t="n">
-        <v>71.60758595262357</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O45" t="n">
         <v>247.7435980350076</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.1726538001471</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K46" t="n">
-        <v>378.9561261587464</v>
+        <v>219.3263264788076</v>
       </c>
       <c r="L46" t="n">
-        <v>552.2198926089004</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M46" t="n">
-        <v>368.6275248709067</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082464</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P46" t="n">
-        <v>456.5978726797225</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R46" t="n">
-        <v>18.04791108854247</v>
+        <v>18.04791108854245</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
